--- a/dados_para_teste/resultados_ajuste_a_dados_reais.xlsx
+++ b/dados_para_teste/resultados_ajuste_a_dados_reais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NetoDavi\Desktop\survival_pibic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NetoDavi\Desktop\survival_pibic\dados_para_teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6B7BC0-6BF1-4810-A81F-59028D332AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61306E4F-0CC7-4099-8078-8149EF553291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="4" xr2:uid="{6BDB12EF-AC99-404F-A874-0220E9463E94}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="114">
   <si>
     <t>AIC</t>
   </si>
@@ -85,15 +85,6 @@
     <t>Chute</t>
   </si>
   <si>
-    <t>chute = c(c(0.1,1,5,1),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          1,0.1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          0.1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">           1, 0.5,</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>659,7621</t>
   </si>
   <si>
-    <t>chutes = c(1,0.1,10,</t>
-  </si>
-  <si>
     <t xml:space="preserve">           1,0.5,</t>
   </si>
   <si>
@@ -377,6 +365,24 @@
   </si>
   <si>
     <t>551,9518</t>
+  </si>
+  <si>
+    <t>CAIC</t>
+  </si>
+  <si>
+    <t>primeira versao</t>
+  </si>
+  <si>
+    <t>chutes = c(1,1,10,</t>
+  </si>
+  <si>
+    <t>Log-Verossimilhança</t>
+  </si>
+  <si>
+    <t>chutes = c(0.1,0.1,</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
   </si>
 </sst>
 </file>
@@ -387,8 +393,8 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -411,7 +417,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +433,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -480,34 +498,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -516,11 +518,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -528,16 +527,25 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -873,16 +881,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1019,11 +1027,11 @@
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
@@ -1138,11 +1146,11 @@
       </c>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
@@ -1295,18 +1303,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -1356,13 +1364,13 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
@@ -1388,13 +1396,13 @@
         <v>4524616</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
@@ -1411,13 +1419,13 @@
         <v>4563281</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
@@ -1447,83 +1455,83 @@
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="G13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="G14" s="12">
-        <v>2</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="G14" s="11">
+        <v>2</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>3</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>395.2312</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <v>422.48849999999999</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <v>406.23480000000001</v>
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="G16" s="12">
-        <v>4</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="G16" s="11">
+        <v>4</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>5</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>6</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="23" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>3</v>
@@ -1567,16 +1575,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T24" t="s">
         <v>12</v>
@@ -1618,13 +1626,13 @@
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="13">
         <v>392.34300000000002</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="13">
         <v>436.63619999999997</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="13">
         <v>410.22379999999998</v>
       </c>
       <c r="N26" t="s">
@@ -1866,22 +1874,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1952,13 +1957,13 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1980,13 +1985,13 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -2006,13 +2011,13 @@
         <v>1165.9870000000001</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -2074,27 +2079,26 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F12" s="16"/>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" t="s">
         <v>2</v>
       </c>
       <c r="L13">
@@ -2120,7 +2124,7 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F14" s="16">
+      <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
@@ -2134,53 +2138,44 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F15" s="16">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F16" s="16">
-        <v>4</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="F16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F17" s="16">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F18" s="16">
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F19" s="16">
+      <c r="F19">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F20" s="16">
+      <c r="F20">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
@@ -2196,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="6:18" x14ac:dyDescent="0.25">
@@ -2206,7 +2201,7 @@
       <c r="G25">
         <v>1192.991</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="14">
         <v>1218.7850000000001</v>
       </c>
       <c r="I25">
@@ -2241,26 +2236,26 @@
       <c r="G26">
         <v>1146.721</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="15">
         <v>1176.8140000000001</v>
       </c>
       <c r="I26" s="9">
         <v>1158.4870000000001</v>
       </c>
       <c r="M26" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" t="s">
         <v>67</v>
       </c>
-      <c r="O26" t="s">
-        <v>68</v>
-      </c>
-      <c r="P26" t="s">
-        <v>71</v>
-      </c>
       <c r="Q26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="6:18" x14ac:dyDescent="0.25">
@@ -2270,7 +2265,7 @@
       <c r="G27">
         <v>1147.492</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="14">
         <v>1181.883</v>
       </c>
       <c r="I27">
@@ -2299,26 +2294,26 @@
       <c r="G28">
         <v>1157.867</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="14">
         <v>1196.558</v>
       </c>
       <c r="I28">
         <v>1172.9939999999999</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="6:18" x14ac:dyDescent="0.25">
@@ -2328,26 +2323,26 @@
       <c r="G29">
         <v>1152.4110000000001</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="14">
         <v>1195.4000000000001</v>
       </c>
       <c r="I29">
         <v>1169.2180000000001</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="6:18" x14ac:dyDescent="0.25">
@@ -2357,7 +2352,7 @@
       <c r="G30" s="9">
         <v>1140.944</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="14">
         <v>1188.2329999999999</v>
       </c>
       <c r="I30">
@@ -2371,7 +2366,7 @@
       <c r="G31">
         <v>1146.194</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="14">
         <v>1197.7819999999999</v>
       </c>
       <c r="I31">
@@ -2398,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA929FD9-467F-41A9-B648-C393C550A341}">
   <dimension ref="B2:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="Q10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView topLeftCell="M10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29:S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,16 +2411,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -2477,46 +2472,46 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="S4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>23</v>
       </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
       <c r="U4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -2524,34 +2519,34 @@
         <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
@@ -2559,34 +2554,34 @@
         <v>4</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
@@ -2596,13 +2591,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
@@ -2610,13 +2605,13 @@
         <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
@@ -2624,13 +2619,13 @@
         <v>7</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
@@ -2638,21 +2633,21 @@
         <v>8</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
@@ -2748,11 +2743,11 @@
       <c r="M21" s="1"/>
     </row>
     <row r="26" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -2824,25 +2819,25 @@
         <v>564.95730000000003</v>
       </c>
       <c r="P29" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="Q29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S29" t="s">
+        <v>94</v>
+      </c>
+      <c r="T29" t="s">
         <v>97</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V29" t="s">
         <v>98</v>
-      </c>
-      <c r="T29" t="s">
-        <v>101</v>
-      </c>
-      <c r="U29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V29" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="30" spans="6:22" x14ac:dyDescent="0.25">
@@ -2894,25 +2889,25 @@
         <v>558.56330000000003</v>
       </c>
       <c r="P31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="6:22" x14ac:dyDescent="0.25">
@@ -2929,25 +2924,25 @@
         <v>563.44470000000001</v>
       </c>
       <c r="P32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="T32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="U32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.25">
@@ -2994,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D949CA-8EC2-48FC-9507-1EAB08725144}">
-  <dimension ref="C3:T20"/>
+  <dimension ref="C3:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:M20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,631 +3002,914 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="13" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1345.675</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1358.46</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1350.605</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="21">
+        <v>655.27</v>
+      </c>
+      <c r="L6" s="21">
+        <v>666.82849999999996</v>
+      </c>
+      <c r="M6" s="21">
+        <v>659.76210000000003</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="21">
+        <v>655.27</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>666.82849999999996</v>
+      </c>
+      <c r="R6" s="21">
+        <v>669.82849999999996</v>
+      </c>
+      <c r="S6" s="21">
+        <v>-324.5521</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" s="16">
+        <v>655.27</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>666.82849999999996</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>659.76210000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1331.268</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1352.5540000000001</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1339.463</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="21">
+        <v>645.60979999999995</v>
+      </c>
+      <c r="L7" s="21">
+        <v>664.83910000000003</v>
+      </c>
+      <c r="M7" s="21">
+        <v>653.06190000000004</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="21">
+        <v>645.60979999999995</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>664.83910000000003</v>
+      </c>
+      <c r="R7" s="21">
+        <v>669.83910000000003</v>
+      </c>
+      <c r="S7" s="5">
+        <v>-317.64940000000001</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" s="7">
+        <v>645.60979999999995</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>664.83910000000003</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>653.06190000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D8" s="16">
+        <v>1178.6010000000001</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1204.125</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1188.4159999999999</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="21">
+        <v>581.39800000000002</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="21">
+        <v>581.3981</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>604.44550000000004</v>
+      </c>
+      <c r="R8" s="21">
+        <v>610.44550000000004</v>
+      </c>
+      <c r="S8" s="5">
+        <v>-284.49849999999998</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="7">
+        <v>581.39800000000002</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1154.558</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1184.3140000000001</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1165.9870000000001</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="21">
+        <v>550.97990000000004</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="21">
+        <v>550.97990000000004</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="21">
+        <v>584.83370000000002</v>
+      </c>
+      <c r="S9" s="5">
+        <v>-268.23860000000002</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" s="7">
+        <v>550.97990000000004</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="27" t="s">
+      <c r="D10" s="16">
+        <v>1166.2729999999999</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1200.252</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1179.306</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" s="27" t="s">
+      <c r="K10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="21"/>
+      <c r="O10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1345.675</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1358.46</v>
-      </c>
-      <c r="F6" s="23">
-        <v>1350.605</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="30">
-        <v>655.27</v>
-      </c>
-      <c r="L6" s="30">
-        <v>666.82849999999996</v>
-      </c>
-      <c r="M6" s="30">
-        <v>659.76210000000003</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="23">
-        <v>655.27</v>
-      </c>
-      <c r="S6" s="4">
-        <v>666.82849999999996</v>
-      </c>
-      <c r="T6" s="4">
-        <v>659.76210000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="P10" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="29">
+        <v>584.13419999999996</v>
+      </c>
+      <c r="S10" s="5">
+        <v>-264.4348</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="23">
-        <v>1331.268</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1352.5540000000001</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1339.463</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="D11" s="16">
+        <v>1159.107</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1197.3009999999999</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1173.7370000000001</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="30">
-        <v>645.60979999999995</v>
-      </c>
-      <c r="L7" s="30">
-        <v>664.83910000000003</v>
-      </c>
-      <c r="M7" s="30">
-        <v>653.06190000000004</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="K11" s="21">
+        <v>548.47900000000004</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="7">
-        <v>645.60979999999995</v>
-      </c>
-      <c r="S7" s="7">
-        <v>664.83910000000003</v>
-      </c>
-      <c r="T7" s="7">
-        <v>653.06190000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="P11" s="21">
+        <v>548.47900000000004</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="21">
+        <v>591.91020000000003</v>
+      </c>
+      <c r="S11" s="5">
+        <v>-264.86869999999999</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="23">
-        <v>1178.6010000000001</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1204.125</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1188.4159999999999</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="D12" s="17">
+        <v>1140.952</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1183.3530000000001</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1157.172</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="30">
-        <v>581.39800000000002</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="K12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="21">
+        <v>584.39139999999998</v>
+      </c>
+      <c r="M12" s="21">
+        <v>560.83699999999999</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="O12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="7">
-        <v>581.39800000000002</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="P12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>584.39139999999998</v>
+      </c>
+      <c r="R12" s="21">
+        <v>594.39139999999998</v>
+      </c>
+      <c r="S12" s="5">
+        <v>-262.65530000000001</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="23">
-        <v>1154.558</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1184.3140000000001</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1165.9870000000001</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="D13" s="16">
+        <v>1146.366</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1192.9680000000001</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1164.1679999999999</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="30">
-        <v>550.97990000000004</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="4" t="s">
+      <c r="K13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="21">
+        <v>566.00390000000004</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="7">
-        <v>550.97990000000004</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="P13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="21">
+        <v>602.91369999999995</v>
+      </c>
+      <c r="S13" s="5">
+        <v>-263.4624</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="23">
-        <v>1166.2729999999999</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1200.252</v>
-      </c>
-      <c r="F10" s="23">
-        <v>1179.306</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="D14" s="16">
+        <v>1193.26</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1218.7850000000001</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1203.076</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="22">
+        <v>573.03070000000002</v>
+      </c>
+      <c r="M14" s="21">
+        <v>558.90260000000001</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="21">
+        <v>549.98080000000004</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>573.02819999999997</v>
+      </c>
+      <c r="R14" s="26">
+        <v>579.02819999999997</v>
+      </c>
+      <c r="S14" s="5">
+        <v>-268.78989999999999</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X14">
+        <v>555.94320000000005</v>
+      </c>
+      <c r="Y14">
+        <v>579.39170000000001</v>
+      </c>
+      <c r="Z14">
+        <v>565.25900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1147.1310000000001</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1176.8140000000001</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1158.4870000000001</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="L15" s="21">
+        <v>581.44650000000001</v>
+      </c>
+      <c r="M15" s="21">
+        <v>564.95849999999996</v>
+      </c>
+      <c r="N15" s="21"/>
+      <c r="O15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="23">
-        <v>1159.107</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1197.3009999999999</v>
-      </c>
-      <c r="F11" s="23">
-        <v>1173.7370000000001</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="P15" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>581.44650000000001</v>
+      </c>
+      <c r="R15" s="21">
+        <v>588.44650000000001</v>
+      </c>
+      <c r="S15" s="5">
+        <v>-270.04500000000002</v>
+      </c>
+      <c r="W15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="30">
-        <v>548.47900000000004</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="X15">
+        <v>554.08879999999999</v>
+      </c>
+      <c r="Y15">
+        <v>581.44539999999995</v>
+      </c>
+      <c r="Z15">
+        <v>564.95730000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="24">
-        <v>1140.952</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1183.3530000000001</v>
-      </c>
-      <c r="F12" s="24">
-        <v>1157.172</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="D16" s="16">
+        <v>1147.903</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1181.8820000000001</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1160.9369999999999</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K16" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="32">
-        <v>584.39139999999998</v>
-      </c>
-      <c r="M12" s="32">
-        <v>560.83699999999999</v>
-      </c>
-      <c r="Q12" s="4" t="s">
+      <c r="L16" s="21">
+        <v>577.94359999999995</v>
+      </c>
+      <c r="M16" s="21">
+        <v>559.1001</v>
+      </c>
+      <c r="N16" s="21"/>
+      <c r="O16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="R12" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="P16" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>577.94359999999995</v>
+      </c>
+      <c r="R16" s="21">
+        <v>585.94359999999995</v>
+      </c>
+      <c r="S16" s="5">
+        <v>-265.33949999999999</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="X16">
+        <v>546.67920000000004</v>
+      </c>
+      <c r="Y16">
+        <v>577.94380000000001</v>
+      </c>
+      <c r="Z16">
+        <v>559.10029999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="23">
-        <v>1146.366</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1192.9680000000001</v>
-      </c>
-      <c r="F13" s="23">
-        <v>1164.1679999999999</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="D17" s="16">
+        <v>1158.3789999999999</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1196.5730000000001</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1173.01</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K17" s="22">
+        <v>545.33100000000002</v>
+      </c>
+      <c r="L17" s="21">
+        <v>579.76220000000001</v>
+      </c>
+      <c r="M17" s="21">
+        <v>558.56330000000003</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="26">
+        <v>545.33109999999999</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>579.76220000000001</v>
+      </c>
+      <c r="R17" s="21">
+        <v>588.76220000000001</v>
+      </c>
+      <c r="S17" s="5">
+        <v>-263.29469999999998</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X17" s="9">
+        <v>544.58879999999999</v>
+      </c>
+      <c r="Y17">
+        <v>579.76220000000001</v>
+      </c>
+      <c r="Z17">
+        <v>558.56330000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1153</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1195.4010000000001</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1169.22</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="32">
-        <v>566.00390000000004</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+      <c r="L18" s="21">
+        <v>586.9991</v>
+      </c>
+      <c r="M18" s="21">
+        <v>563.44470000000001</v>
+      </c>
+      <c r="N18" s="21"/>
+      <c r="O18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="23">
-        <v>1193.26</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1218.7850000000001</v>
-      </c>
-      <c r="F14" s="23">
-        <v>1203.076</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="P18" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>586.9991</v>
+      </c>
+      <c r="R18" s="21">
+        <v>596.9991</v>
+      </c>
+      <c r="S18" s="5">
+        <v>-263.95909999999998</v>
+      </c>
+      <c r="W18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="X18">
+        <v>547.91830000000004</v>
+      </c>
+      <c r="Y18">
+        <v>586.9991</v>
+      </c>
+      <c r="Z18">
+        <v>563.44470000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1141.6500000000001</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1188.252</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1159.452</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="31">
-        <v>573.03070000000002</v>
-      </c>
-      <c r="M14" s="32">
-        <v>558.89800000000002</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" s="16">
-        <v>555.94320000000005</v>
-      </c>
-      <c r="S14" s="16">
-        <v>579.39170000000001</v>
-      </c>
-      <c r="T14" s="16">
-        <v>565.25900000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="L19" s="21">
+        <v>590.26319999999998</v>
+      </c>
+      <c r="M19" s="21">
+        <v>564.35329999999999</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="23">
-        <v>1147.1310000000001</v>
-      </c>
-      <c r="E15" s="24">
-        <v>1176.8140000000001</v>
-      </c>
-      <c r="F15" s="25">
-        <v>1158.4870000000001</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="P19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>590.26319999999998</v>
+      </c>
+      <c r="R19" s="21">
+        <v>601.26319999999998</v>
+      </c>
+      <c r="S19" s="5">
+        <v>-262.63709999999998</v>
+      </c>
+      <c r="W19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="X19">
+        <v>547.27430000000004</v>
+      </c>
+      <c r="Y19">
+        <v>590.26319999999998</v>
+      </c>
+      <c r="Z19">
+        <v>564.35329999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C20" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1146.9949999999999</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1197.789</v>
+      </c>
+      <c r="F20" s="20">
+        <v>1166.3710000000001</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="32">
-        <v>581.44650000000001</v>
-      </c>
-      <c r="M15" s="32">
-        <v>564.95849999999996</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="R15" s="16">
-        <v>554.08879999999999</v>
-      </c>
-      <c r="S15" s="16">
-        <v>581.44539999999995</v>
-      </c>
-      <c r="T15" s="16">
-        <v>564.95730000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+      <c r="L20" s="24">
+        <v>597.65899999999999</v>
+      </c>
+      <c r="M20" s="24">
+        <v>569.39369999999997</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="23">
-        <v>1147.903</v>
-      </c>
-      <c r="E16" s="25">
-        <v>1181.8820000000001</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1160.9369999999999</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="P20" s="24">
+        <v>551.95180000000005</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>597.65899999999999</v>
+      </c>
+      <c r="R20" s="24">
+        <v>609.65899999999999</v>
+      </c>
+      <c r="S20" s="24">
+        <v>-263.38099999999997</v>
+      </c>
+      <c r="W20" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="32">
-        <v>577.94359999999995</v>
-      </c>
-      <c r="M16" s="32">
-        <v>559.1001</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="R16" s="16">
-        <v>546.67920000000004</v>
-      </c>
-      <c r="S16" s="16">
-        <v>577.94380000000001</v>
-      </c>
-      <c r="T16" s="16">
-        <v>559.10029999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="23">
-        <v>1158.3789999999999</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1196.5730000000001</v>
-      </c>
-      <c r="F17" s="23">
-        <v>1173.01</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="31">
-        <v>545.33100000000002</v>
-      </c>
-      <c r="L17" s="32">
-        <v>579.76220000000001</v>
-      </c>
-      <c r="M17" s="32">
-        <v>558.56330000000003</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R17" s="9">
-        <v>544.58879999999999</v>
-      </c>
-      <c r="S17" s="16">
-        <v>579.76220000000001</v>
-      </c>
-      <c r="T17" s="16">
-        <v>558.56330000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1153</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1195.4010000000001</v>
-      </c>
-      <c r="F18" s="23">
-        <v>1169.22</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="30">
-        <v>586.9991</v>
-      </c>
-      <c r="M18" s="30">
-        <v>563.44470000000001</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R18">
-        <v>547.91830000000004</v>
-      </c>
-      <c r="S18">
-        <v>586.9991</v>
-      </c>
-      <c r="T18">
-        <v>563.44470000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="23">
-        <v>1141.6500000000001</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1188.252</v>
-      </c>
-      <c r="F19" s="23">
-        <v>1159.452</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="30">
-        <v>590.26319999999998</v>
-      </c>
-      <c r="M19" s="30">
-        <v>564.35329999999999</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R19">
-        <v>547.27430000000004</v>
-      </c>
-      <c r="S19">
-        <v>590.26319999999998</v>
-      </c>
-      <c r="T19">
-        <v>564.35329999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="28">
-        <v>1146.9949999999999</v>
-      </c>
-      <c r="E20" s="28">
-        <v>1197.789</v>
-      </c>
-      <c r="F20" s="28">
-        <v>1166.3710000000001</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="34">
+      <c r="X20" s="18">
+        <v>550.76199999999994</v>
+      </c>
+      <c r="Y20" s="18">
         <v>597.65899999999999</v>
       </c>
-      <c r="M20" s="34">
+      <c r="Z20" s="18">
         <v>569.39369999999997</v>
       </c>
-      <c r="Q20" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="26">
-        <v>550.76199999999994</v>
-      </c>
-      <c r="S20" s="26">
-        <v>597.65899999999999</v>
-      </c>
-      <c r="T20" s="26">
-        <v>569.39369999999997</v>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="O22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22">
+        <f>SMALL(P6:P20,1)</f>
+        <v>545.33109999999999</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:R22" si="0">SMALL(Q6:Q20,1)</f>
+        <v>573.02819999999997</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>579.02819999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="L10:M11 L8:M8 L9:M9 L13 K10 K12:K16 K18:K20" numberStoredAsText="1"/>
+    <ignoredError sqref="L10:M11 L8:M8 L9:M9 L13 K10 K12:K16 K18:K20 Q9 P10:Q10 Q11 P12 P13:Q13 P15:P16 P18:P19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3662,22 +3940,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -3761,27 +4039,26 @@
       </c>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="G12" s="16"/>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="G13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" t="s">
         <v>2</v>
       </c>
       <c r="M13">
@@ -3807,73 +4084,64 @@
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="G14" s="16">
-        <v>2</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="P14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="G15" s="16">
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="P15">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="G16" s="16">
-        <v>4</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="G16">
+        <v>4</v>
+      </c>
       <c r="P16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="16">
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
       <c r="P17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="16">
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G19" s="16">
+      <c r="G19">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G20" s="16">
+      <c r="G20">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
@@ -3893,7 +4161,7 @@
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>1940276</v>
       </c>
     </row>
@@ -3901,9 +4169,9 @@
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G27">
@@ -3930,12 +4198,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="S2:U2"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3963,26 +4231,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="L3" s="10" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="L3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="R3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4204,26 +4472,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="L2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="R2" s="10" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="R2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
